--- a/electricReport.xlsx
+++ b/electricReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>READBULL DISTILARY</t>
   </si>
@@ -52,13 +52,13 @@
     <t>Particulars</t>
   </si>
   <si>
-    <t>shift1</t>
-  </si>
-  <si>
-    <t>shift2</t>
-  </si>
-  <si>
-    <t>shift3</t>
+    <t>shift 1</t>
+  </si>
+  <si>
+    <t>shift 2</t>
+  </si>
+  <si>
+    <t>shift 3</t>
   </si>
   <si>
     <t>To day</t>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>Till Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:00-14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22:00-06:00</t>
   </si>
   <si>
     <t>KWH</t>
@@ -183,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -198,11 +207,25 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,7 +239,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -686,18 +715,18 @@
         <v>12</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="4" t="s">
         <v>16</v>
       </c>
@@ -714,12 +743,18 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -731,468 +766,468 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="A13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="9">
         <v>15754</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>16</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="9">
         <v>47261</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="9">
         <v>47</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="9">
         <v>183793</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="9">
         <v>184</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="10">
         <v>246808</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="10">
         <v>247</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="11">
         <v>204798</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="11">
         <v>205</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="12">
         <v>189045</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="12">
         <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9">
         <v>12</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
         <v>28</v>
       </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
         <v>135</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
         <v>175</v>
       </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
         <v>145</v>
       </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12">
         <v>135</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>3</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <v>4</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <v>4</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <v>3</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9">
+        <v>15754</v>
+      </c>
+      <c r="D16" s="9">
+        <v>16</v>
+      </c>
+      <c r="E16" s="9">
+        <v>47261</v>
+      </c>
+      <c r="F16" s="9">
+        <v>47</v>
+      </c>
+      <c r="G16" s="9">
+        <v>183793</v>
+      </c>
+      <c r="H16" s="9">
+        <v>184</v>
+      </c>
+      <c r="I16" s="10">
+        <v>246808</v>
+      </c>
+      <c r="J16" s="10">
+        <v>247</v>
+      </c>
+      <c r="K16" s="11">
+        <v>204798</v>
+      </c>
+      <c r="L16" s="11">
+        <v>205</v>
+      </c>
+      <c r="M16" s="12">
+        <v>189045</v>
+      </c>
+      <c r="N16" s="12">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="13">
+        <v>31520</v>
+      </c>
+      <c r="D17" s="13">
+        <v>31.52</v>
+      </c>
+      <c r="E17" s="13">
+        <v>94550</v>
+      </c>
+      <c r="F17" s="13">
+        <v>94.55</v>
+      </c>
+      <c r="G17" s="13">
+        <v>367724</v>
+      </c>
+      <c r="H17" s="13">
+        <v>367.724</v>
+      </c>
+      <c r="I17" s="13">
+        <v>493795</v>
+      </c>
+      <c r="J17" s="13">
+        <v>493.795</v>
+      </c>
+      <c r="K17" s="13">
+        <v>409745</v>
+      </c>
+      <c r="L17" s="13">
+        <v>409.745</v>
+      </c>
+      <c r="M17" s="13">
+        <v>378228</v>
+      </c>
+      <c r="N17" s="13">
+        <v>378.228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="B18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="9">
+        <v>15754</v>
+      </c>
+      <c r="D18" s="9">
+        <v>16</v>
+      </c>
+      <c r="E18" s="9">
+        <v>47261</v>
+      </c>
+      <c r="F18" s="9">
+        <v>47</v>
+      </c>
+      <c r="G18" s="9">
+        <v>183793</v>
+      </c>
+      <c r="H18" s="9">
+        <v>184</v>
+      </c>
+      <c r="I18" s="10">
+        <v>246808</v>
+      </c>
+      <c r="J18" s="10">
+        <v>247</v>
+      </c>
+      <c r="K18" s="11">
+        <v>204798</v>
+      </c>
+      <c r="L18" s="11">
+        <v>205</v>
+      </c>
+      <c r="M18" s="12">
+        <v>189045</v>
+      </c>
+      <c r="N18" s="12">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="9">
+        <v>12</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>28</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>135</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <v>175</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>145</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
+        <v>135</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
         <v>3</v>
       </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
         <v>4</v>
       </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
+      <c r="J20" s="10">
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
         <v>4</v>
       </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-      <c r="M15" s="10">
+      <c r="L20" s="11">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12">
         <v>3</v>
       </c>
-      <c r="N15" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="N20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="9">
         <v>15754</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D21" s="9">
         <v>16</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E21" s="9">
         <v>47261</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F21" s="9">
         <v>47</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G21" s="9">
         <v>183793</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H21" s="9">
         <v>184</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I21" s="10">
         <v>246808</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J21" s="10">
         <v>247</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K21" s="11">
         <v>204798</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L21" s="11">
         <v>205</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M21" s="12">
         <v>189045</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N21" s="12">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="11">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="13">
         <v>31520</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D22" s="13">
         <v>31.52</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E22" s="13">
         <v>94550</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F22" s="13">
         <v>94.55</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G22" s="13">
         <v>367724</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H22" s="13">
         <v>367.724</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I22" s="13">
         <v>493795</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J22" s="13">
         <v>493.795</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K22" s="13">
         <v>409745</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L22" s="13">
         <v>409.745</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M22" s="13">
         <v>378228</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N22" s="13">
         <v>378.228</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="7">
-        <v>15754</v>
-      </c>
-      <c r="D18" s="7">
-        <v>16</v>
-      </c>
-      <c r="E18" s="7">
-        <v>47261</v>
-      </c>
-      <c r="F18" s="7">
-        <v>47</v>
-      </c>
-      <c r="G18" s="7">
-        <v>183793</v>
-      </c>
-      <c r="H18" s="7">
-        <v>184</v>
-      </c>
-      <c r="I18" s="8">
-        <v>246808</v>
-      </c>
-      <c r="J18" s="8">
-        <v>247</v>
-      </c>
-      <c r="K18" s="9">
-        <v>204798</v>
-      </c>
-      <c r="L18" s="9">
-        <v>205</v>
-      </c>
-      <c r="M18" s="10">
-        <v>189045</v>
-      </c>
-      <c r="N18" s="10">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="7">
-        <v>12</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>28</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>135</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <v>175</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9">
-        <v>145</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0</v>
-      </c>
-      <c r="M19" s="10">
-        <v>135</v>
-      </c>
-      <c r="N19" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>3</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <v>4</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
-        <v>4</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="10">
-        <v>3</v>
-      </c>
-      <c r="N20" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="7">
-        <v>15754</v>
-      </c>
-      <c r="D21" s="7">
-        <v>16</v>
-      </c>
-      <c r="E21" s="7">
-        <v>47261</v>
-      </c>
-      <c r="F21" s="7">
-        <v>47</v>
-      </c>
-      <c r="G21" s="7">
-        <v>183793</v>
-      </c>
-      <c r="H21" s="7">
-        <v>184</v>
-      </c>
-      <c r="I21" s="8">
-        <v>246808</v>
-      </c>
-      <c r="J21" s="8">
-        <v>247</v>
-      </c>
-      <c r="K21" s="9">
-        <v>204798</v>
-      </c>
-      <c r="L21" s="9">
-        <v>205</v>
-      </c>
-      <c r="M21" s="10">
-        <v>189045</v>
-      </c>
-      <c r="N21" s="10">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="11">
-        <v>31520</v>
-      </c>
-      <c r="D22" s="11">
-        <v>31.52</v>
-      </c>
-      <c r="E22" s="11">
-        <v>94550</v>
-      </c>
-      <c r="F22" s="11">
-        <v>94.55</v>
-      </c>
-      <c r="G22" s="11">
-        <v>367724</v>
-      </c>
-      <c r="H22" s="11">
-        <v>367.724</v>
-      </c>
-      <c r="I22" s="11">
-        <v>493795</v>
-      </c>
-      <c r="J22" s="11">
-        <v>493.795</v>
-      </c>
-      <c r="K22" s="11">
-        <v>409745</v>
-      </c>
-      <c r="L22" s="11">
-        <v>409.745</v>
-      </c>
-      <c r="M22" s="11">
-        <v>378228</v>
-      </c>
-      <c r="N22" s="11">
-        <v>378.228</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
@@ -1208,12 +1243,15 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A8:N8"/>
     <mergeCell ref="A10:B12"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J11"/>
     <mergeCell ref="K10:L11"/>
     <mergeCell ref="M10:N11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
   </mergeCells>

--- a/electricReport.xlsx
+++ b/electricReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>READBULL DISTILARY</t>
   </si>
@@ -86,18 +86,6 @@
   </si>
   <si>
     <t>Power Vision1</t>
-  </si>
-  <si>
-    <t>TG Meter</t>
-  </si>
-  <si>
-    <t>GRID</t>
-  </si>
-  <si>
-    <t>METER 3</t>
-  </si>
-  <si>
-    <t>METER 7</t>
   </si>
   <si>
     <t>Total</t>
@@ -107,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -134,12 +122,8 @@
       <color rgb="black"/>
       <sz val="10"/>
     </font>
-    <font>
-      <color rgb="black"/>
-      <sz val="12"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,26 +148,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="ffff00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ddd9c3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="8eb4e3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="e6b9b8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="d7e4bd"/>
       </patternFill>
     </fill>
     <fill>
@@ -225,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,20 +212,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -809,425 +762,89 @@
       <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9">
-        <v>15754</v>
-      </c>
-      <c r="D13" s="9">
-        <v>16</v>
-      </c>
-      <c r="E13" s="9">
-        <v>47261</v>
-      </c>
-      <c r="F13" s="9">
-        <v>47</v>
-      </c>
-      <c r="G13" s="9">
-        <v>183793</v>
-      </c>
-      <c r="H13" s="9">
-        <v>184</v>
-      </c>
-      <c r="I13" s="10">
-        <v>246808</v>
-      </c>
-      <c r="J13" s="10">
-        <v>247</v>
-      </c>
-      <c r="K13" s="11">
-        <v>204798</v>
-      </c>
-      <c r="L13" s="11">
-        <v>205</v>
-      </c>
-      <c r="M13" s="12">
-        <v>189045</v>
-      </c>
-      <c r="N13" s="12">
-        <v>189</v>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="9">
-        <v>12</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
-        <v>28</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>135</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10">
-        <v>175</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11">
-        <v>145</v>
-      </c>
-      <c r="L14" s="11">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12">
-        <v>135</v>
-      </c>
-      <c r="N14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>3</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10">
-        <v>4</v>
-      </c>
-      <c r="J15" s="10">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11">
-        <v>4</v>
-      </c>
-      <c r="L15" s="11">
-        <v>0</v>
-      </c>
-      <c r="M15" s="12">
-        <v>3</v>
-      </c>
-      <c r="N15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="9">
-        <v>15754</v>
-      </c>
-      <c r="D16" s="9">
-        <v>16</v>
-      </c>
-      <c r="E16" s="9">
-        <v>47261</v>
-      </c>
-      <c r="F16" s="9">
-        <v>47</v>
-      </c>
-      <c r="G16" s="9">
-        <v>183793</v>
-      </c>
-      <c r="H16" s="9">
-        <v>184</v>
-      </c>
-      <c r="I16" s="10">
-        <v>246808</v>
-      </c>
-      <c r="J16" s="10">
-        <v>247</v>
-      </c>
-      <c r="K16" s="11">
-        <v>204798</v>
-      </c>
-      <c r="L16" s="11">
-        <v>205</v>
-      </c>
-      <c r="M16" s="12">
-        <v>189045</v>
-      </c>
-      <c r="N16" s="12">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="13">
-        <v>31520</v>
-      </c>
-      <c r="D17" s="13">
-        <v>31.52</v>
-      </c>
-      <c r="E17" s="13">
-        <v>94550</v>
-      </c>
-      <c r="F17" s="13">
-        <v>94.55</v>
-      </c>
-      <c r="G17" s="13">
-        <v>367724</v>
-      </c>
-      <c r="H17" s="13">
-        <v>367.724</v>
-      </c>
-      <c r="I17" s="13">
-        <v>493795</v>
-      </c>
-      <c r="J17" s="13">
-        <v>493.795</v>
-      </c>
-      <c r="K17" s="13">
-        <v>409745</v>
-      </c>
-      <c r="L17" s="13">
-        <v>409.745</v>
-      </c>
-      <c r="M17" s="13">
-        <v>378228</v>
-      </c>
-      <c r="N17" s="13">
-        <v>378.228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="9">
-        <v>15754</v>
-      </c>
-      <c r="D18" s="9">
-        <v>16</v>
-      </c>
-      <c r="E18" s="9">
-        <v>47261</v>
-      </c>
-      <c r="F18" s="9">
-        <v>47</v>
-      </c>
-      <c r="G18" s="9">
-        <v>183793</v>
-      </c>
-      <c r="H18" s="9">
-        <v>184</v>
-      </c>
-      <c r="I18" s="10">
-        <v>246808</v>
-      </c>
-      <c r="J18" s="10">
-        <v>247</v>
-      </c>
-      <c r="K18" s="11">
-        <v>204798</v>
-      </c>
-      <c r="L18" s="11">
-        <v>205</v>
-      </c>
-      <c r="M18" s="12">
-        <v>189045</v>
-      </c>
-      <c r="N18" s="12">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="9">
-        <v>12</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9">
-        <v>28</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>135</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10">
-        <v>175</v>
-      </c>
-      <c r="J19" s="10">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>145</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="12">
-        <v>135</v>
-      </c>
-      <c r="N19" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>3</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10">
-        <v>4</v>
-      </c>
-      <c r="J20" s="10">
-        <v>0</v>
-      </c>
-      <c r="K20" s="11">
-        <v>4</v>
-      </c>
-      <c r="L20" s="11">
-        <v>0</v>
-      </c>
-      <c r="M20" s="12">
-        <v>3</v>
-      </c>
-      <c r="N20" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="9">
-        <v>15754</v>
-      </c>
-      <c r="D21" s="9">
-        <v>16</v>
-      </c>
-      <c r="E21" s="9">
-        <v>47261</v>
-      </c>
-      <c r="F21" s="9">
-        <v>47</v>
-      </c>
-      <c r="G21" s="9">
-        <v>183793</v>
-      </c>
-      <c r="H21" s="9">
-        <v>184</v>
-      </c>
-      <c r="I21" s="10">
-        <v>246808</v>
-      </c>
-      <c r="J21" s="10">
-        <v>247</v>
-      </c>
-      <c r="K21" s="11">
-        <v>204798</v>
-      </c>
-      <c r="L21" s="11">
-        <v>205</v>
-      </c>
-      <c r="M21" s="12">
-        <v>189045</v>
-      </c>
-      <c r="N21" s="12">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="13">
-        <v>31520</v>
-      </c>
-      <c r="D22" s="13">
-        <v>31.52</v>
-      </c>
-      <c r="E22" s="13">
-        <v>94550</v>
-      </c>
-      <c r="F22" s="13">
-        <v>94.55</v>
-      </c>
-      <c r="G22" s="13">
-        <v>367724</v>
-      </c>
-      <c r="H22" s="13">
-        <v>367.724</v>
-      </c>
-      <c r="I22" s="13">
-        <v>493795</v>
-      </c>
-      <c r="J22" s="13">
-        <v>493.795</v>
-      </c>
-      <c r="K22" s="13">
-        <v>409745</v>
-      </c>
-      <c r="L22" s="13">
-        <v>409.745</v>
-      </c>
-      <c r="M22" s="13">
-        <v>378228</v>
-      </c>
-      <c r="N22" s="13">
-        <v>378.228</v>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="24">
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
@@ -1252,8 +869,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
